--- a/base/OsloMet_studieprogramvariabler_tableau.xlsx
+++ b/base/OsloMet_studieprogramvariabler_tableau.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hioa365-my.sharepoint.com/personal/kyrremat_oslomet_no/Documents/Dokumenter/statistikk/Studentsvar/base/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{7837E63B-C2E7-4556-BCB7-F122C75BB523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF08278E-6250-4DEB-98A1-404D72BA145E}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{7837E63B-C2E7-4556-BCB7-F122C75BB523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCE00DC4-412F-42B9-BB44-5DD2C1B60696}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -16391,7 +16391,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -16400,6 +16400,12 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -16436,7 +16442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -16446,6 +16452,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -16720,7 +16729,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -17038,9 +17047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K671"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17750,7 +17757,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>185</v>
       </c>
       <c r="D23" s="2" t="s">
